--- a/data1.xlsx
+++ b/data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65" count="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76" count="76">
   <x:si>
     <x:t>batch_no</x:t>
   </x:si>
@@ -209,6 +209,39 @@
   </x:si>
   <x:si>
     <x:t>May 1, 2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May 5, 2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Project 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May 4, 2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Limpopo Sport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Education Sport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bob Cat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>John Pr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amanda Her</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May 10, 2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Evelyn Test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Evelyn health living</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -903,6 +936,120 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
+    <x:row r="11" spans="1:12">
+      <x:c r="A11" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:12">
+      <x:c r="A12" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:12">
+      <x:c r="A13" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
